--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\source\repos\sfml3D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F9D924-7D46-4519-B172-27894B3698F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C431FD35-3A81-4041-84CA-7FEFDA9A6057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>PRIORITY</t>
   </si>
   <si>
-    <t>/*TODO MODIFY VERTEXDATA TO ARRAY OF SIZE 3 (OPTIMIZE AS CURRENT ARCHITECTURE(AND MANY 3D RENDERERS) ONLY SUPPORTS MODELS MADE UP OF TRIANGLES ANYWAY)*/</t>
-  </si>
-  <si>
     <t>/*MAKE INTERACTING WITH VERTICES MORE INTUITIVE, MOVE TYPE DEFENITIONS OUTSIDE OF MESH FOR CONSISTENCY*/</t>
   </si>
   <si>
@@ -49,14 +46,31 @@
   </si>
   <si>
     <t>ANIMATION</t>
+  </si>
+  <si>
+    <t>/*TODO MODIFY VERTEX DATA TO ARRAY OF SIZE 3 (OPTIMIZE AS CURRENT ARCHITECTURE(AND MANY 3D RENDERERS) ONLY SUPPORTS MODELS MADE UP OF TRIANGLES ANYWAY)*/</t>
+  </si>
+  <si>
+    <t>FIX DEPTH ALGORITHM</t>
+  </si>
+  <si>
+    <t>ELAPSED TIME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,8 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,40 +399,40 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -424,7 +440,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -432,7 +448,20 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
